--- a/config_hlw/signIn_cfg.xlsx
+++ b/config_hlw/signIn_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="week" sheetId="2" r:id="rId1"/>
@@ -174,16 +174,13 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0.1福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>0.1福卡</t>
+  </si>
+  <si>
+    <t>0.3福卡</t>
+  </si>
+  <si>
+    <t>1福卡</t>
   </si>
 </sst>
 </file>
@@ -612,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -908,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>4</v>
